--- a/target/test-classes/testData/users.xlsx
+++ b/target/test-classes/testData/users.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFD9558-229F-480A-A768-69C63DAAC6AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,26 +19,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>ys@gmail.com</t>
-  </si>
-  <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>Yogi9242</t>
   </si>
   <si>
     <t>Username</t>
   </si>
+  <si>
+    <t>bryogeesh1996@gmail.com</t>
+  </si>
+  <si>
+    <t>Yogi9242$</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,14 +69,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -159,6 +171,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -194,6 +223,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -369,82 +415,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.1796875" style="1"/>
-    <col min="17" max="17" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="18.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="55" width="9.1796875" style="1"/>
-    <col min="56" max="56" width="14.26953125" style="1" customWidth="1"/>
-    <col min="57" max="57" width="9.1796875" style="1"/>
-    <col min="58" max="58" width="13.453125" style="1" customWidth="1"/>
-    <col min="59" max="16384" width="9.1796875" style="1"/>
+    <col min="45" max="46" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="55" width="9.140625" style="1"/>
+    <col min="56" max="56" width="14.28515625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="9.140625" style="1"/>
+    <col min="58" max="58" width="13.42578125" style="1" customWidth="1"/>
+    <col min="59" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -454,24 +500,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
